--- a/exampleSite/static/halloween_costume_generator.xlsx
+++ b/exampleSite/static/halloween_costume_generator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hugo\Sites\robinzng\exampleSite\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BC456C-C9FA-4377-AF4B-9310AD4CD5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A26EE5-758F-4D58-93A9-783612C1958A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{43372864-43D7-4A59-ACF3-6134C87F189E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{43372864-43D7-4A59-ACF3-6134C87F189E}"/>
   </bookViews>
   <sheets>
     <sheet name="costumes" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
-  <si>
-    <t>show</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>character</t>
   </si>
@@ -163,6 +160,51 @@
   </si>
   <si>
     <t>high-heels</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>https://th.bing.com/th/id/R.7b5e2042af48cb2bdaf63915f5f02c49?rik=VKoQO4dtRYCdxg&amp;riu=http%3a%2f%2fimg4.wikia.nocookie.net%2f__cb20130211013435%2fdoblaje%2fes%2fimages%2f4%2f42%2fDaria_Morgendorffer.jpg&amp;ehk=MQ2k7vZcVSe48rFZkSYlPP1sdKRl8mh79UmaZaFthbY%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0</t>
+  </si>
+  <si>
+    <t>Daria</t>
+  </si>
+  <si>
+    <t>Daria Morgendorffer</t>
+  </si>
+  <si>
+    <t>brown hair, round glasses</t>
+  </si>
+  <si>
+    <t>green blazer, green jacket, orange shirt, orange top, orange blouse</t>
+  </si>
+  <si>
+    <t>black skirt</t>
+  </si>
+  <si>
+    <t>black boots, combat boots, black combat boots</t>
+  </si>
+  <si>
+    <t>Jane Lane</t>
+  </si>
+  <si>
+    <t>https://th.bing.com/th/id/R.5dec4bbdafe37b32551065ab1cf69ccb?rik=%2b7IGLt2Ga7I2TA&amp;riu=http%3a%2f%2fblog.lookmazing.com%2fwp-content%2fuploads%2f2015%2f10%2fjane-104x300.png&amp;ehk=Zt6iKStymKTx3Rm%2bhVtHBdlPsC1vs2Fte0Bo9NyaIfk%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0</t>
+  </si>
+  <si>
+    <t>red blazer, red jacket, black shirt, black blouse, black v-neck</t>
+  </si>
+  <si>
+    <t>black hair, black bob, earrings</t>
+  </si>
+  <si>
+    <t>grey shorts, black shorts</t>
+  </si>
+  <si>
+    <t>black tights, black boots, black knee-high boots</t>
   </si>
 </sst>
 </file>
@@ -517,38 +559,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD77BA2C-ED9F-412B-B177-4CBE1A214489}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="9.7265625" customWidth="1"/>
+    <col min="1" max="8" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -560,7 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC7E920-DDF4-4D22-9AB3-4157CC60CA76}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -571,148 +662,148 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/exampleSite/static/halloween_costume_generator.xlsx
+++ b/exampleSite/static/halloween_costume_generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hugo\Sites\robinzng\exampleSite\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A26EE5-758F-4D58-93A9-783612C1958A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1D3263-A23D-4C47-9677-BE977C472F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{43372864-43D7-4A59-ACF3-6134C87F189E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>character</t>
   </si>
@@ -177,9 +177,6 @@
     <t>Daria Morgendorffer</t>
   </si>
   <si>
-    <t>brown hair, round glasses</t>
-  </si>
-  <si>
     <t>green blazer, green jacket, orange shirt, orange top, orange blouse</t>
   </si>
   <si>
@@ -198,13 +195,124 @@
     <t>red blazer, red jacket, black shirt, black blouse, black v-neck</t>
   </si>
   <si>
-    <t>black hair, black bob, earrings</t>
-  </si>
-  <si>
     <t>grey shorts, black shorts</t>
   </si>
   <si>
     <t>black tights, black boots, black knee-high boots</t>
+  </si>
+  <si>
+    <t>Quinn Morgendorffer</t>
+  </si>
+  <si>
+    <t>https://th.bing.com/th/id/R.e65c73bba6f6ae5d6f882f7932ce2d4c?rik=7UN34tNBhRF77g&amp;riu=http%3a%2f%2fimg2.wikia.nocookie.net%2f__cb20130604070322%2fdaria%2fimages%2f8%2f8b%2fImg-thing.jpg&amp;ehk=Df7ytuLZKvLFc%2bfDnDQdfQCoNrc%2f%2btcAowq7t5B2UtE%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0</t>
+  </si>
+  <si>
+    <t>red hair, bangs, redhead</t>
+  </si>
+  <si>
+    <t>pink shirt, smiley face tee</t>
+  </si>
+  <si>
+    <t>black boots, black shoes</t>
+  </si>
+  <si>
+    <t>Trent Lane</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/daria/images/f/f3/Trentcropped.png/revision/latest?cb=20200815062032</t>
+  </si>
+  <si>
+    <t>accessories</t>
+  </si>
+  <si>
+    <t>green shirt, green tee</t>
+  </si>
+  <si>
+    <t>spiky black hair, goatee</t>
+  </si>
+  <si>
+    <t>necklace, cuff bracelet, rings, earrings</t>
+  </si>
+  <si>
+    <t>brown belt</t>
+  </si>
+  <si>
+    <t>black hair, black bob</t>
+  </si>
+  <si>
+    <t>earrings</t>
+  </si>
+  <si>
+    <t>brown hair</t>
+  </si>
+  <si>
+    <t>round glasses</t>
+  </si>
+  <si>
+    <t>Brittany Taylor</t>
+  </si>
+  <si>
+    <t>https://static.miraheze.org/dariawikiwiki/c/c5/Brittany.gif</t>
+  </si>
+  <si>
+    <t>blonde pigtails, blond hair</t>
+  </si>
+  <si>
+    <t>blue shirt</t>
+  </si>
+  <si>
+    <t>yellow skirt, blue skirt, pleated skirt</t>
+  </si>
+  <si>
+    <t>pom-poms</t>
+  </si>
+  <si>
+    <t>yellow socks, blue sneakers, blue shoes</t>
+  </si>
+  <si>
+    <t>Kevin Thompson</t>
+  </si>
+  <si>
+    <t>black hair</t>
+  </si>
+  <si>
+    <t>yellow football jersey, yellow shirt</t>
+  </si>
+  <si>
+    <t>blue pants, jeans, blue leggings</t>
+  </si>
+  <si>
+    <t>flare jeans, blue jeans, flared pants, blue pants</t>
+  </si>
+  <si>
+    <t>neck cushion, football equipment, gloves</t>
+  </si>
+  <si>
+    <t>cleats, white sneakers</t>
+  </si>
+  <si>
+    <t>Jodie Landon</t>
+  </si>
+  <si>
+    <t>https://th.bing.com/th/id/R.58bd988ef1a6fdb387eb2c760efc707f?rik=qbnGZ8NksR7AjA&amp;riu=http%3a%2f%2fvignette4.wikia.nocookie.net%2fdaria%2fimages%2f1%2f14%2fKevin_Thompson.gif%2frevision%2flatest%3fcb%3d20140902121519&amp;ehk=zzgrLHBjr0sgpwmYGZ%2fVDP43hK2tTkgKGckfZC7drhc%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0</t>
+  </si>
+  <si>
+    <t>black hair, black braids</t>
+  </si>
+  <si>
+    <t>pink shirt, pink blouse</t>
+  </si>
+  <si>
+    <t>grey skirt, white skirt, miniskirt</t>
+  </si>
+  <si>
+    <t>books</t>
+  </si>
+  <si>
+    <t>black shoes, black mary janes, black loafers</t>
+  </si>
+  <si>
+    <t>https://static.tvtropes.org/pmwiki/pub/images/jodie_8099.gif</t>
   </si>
 </sst>
 </file>
@@ -559,18 +667,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD77BA2C-ED9F-412B-B177-4CBE1A214489}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="8" width="9.7265625" customWidth="1"/>
+    <col min="1" max="9" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -593,10 +701,13 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -607,39 +718,169 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="H2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>44</v>
       </c>
       <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" t="s">
         <v>53</v>
       </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="H3" t="s">
+      <c r="C4" t="s">
         <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/exampleSite/static/halloween_costume_generator.xlsx
+++ b/exampleSite/static/halloween_costume_generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hugo\Sites\robinzng\exampleSite\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CCEE0E-E837-4067-A428-06563BD668F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC35A54-F1C6-48E2-A473-C0721D781731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{43372864-43D7-4A59-ACF3-6134C87F189E}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>character</t>
   </si>
   <si>
-    <t>shirt</t>
-  </si>
-  <si>
     <t>shoes</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>necklace, bracelet, rings, earrings</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>outerwear_style</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
     <t>orange</t>
   </si>
   <si>
-    <t>shirt, blouse, button-down, collared</t>
-  </si>
-  <si>
     <t>skirt, mini</t>
   </si>
   <si>
@@ -206,10 +197,64 @@
     <t>yellow socks, pom poms</t>
   </si>
   <si>
-    <t>shirt, crop top</t>
-  </si>
-  <si>
-    <t>shirt, blouse, tank top</t>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>D.W. Read</t>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/youtubepoop/images/e/e2/DW.jpg/revision/latest?cb=20130813035705</t>
+  </si>
+  <si>
+    <t>shirt, long-sleeve</t>
+  </si>
+  <si>
+    <t>shirt, short-sleeve</t>
+  </si>
+  <si>
+    <t>shirt, blouse, button-down, collared, short-sleeve</t>
+  </si>
+  <si>
+    <t>shirt, crop top, short-sleeve</t>
+  </si>
+  <si>
+    <t>shirt, blouse, tank top, short-sleeve, long-sleeve</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>dress, knee-length, short-sleeve</t>
+  </si>
+  <si>
+    <t>shoes, mary janes, loafers</t>
+  </si>
+  <si>
+    <t>Arthur Read</t>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/p__/images/8/80/8FBDE0E1-A758-42B1-B3A2-A505722865F9.png/revision/latest?cb=20180629000901&amp;path-prefix=protagonist</t>
+  </si>
+  <si>
+    <t>pants, jeans</t>
+  </si>
+  <si>
+    <t>Francine Frensky</t>
+  </si>
+  <si>
+    <t>https://th.bing.com/th/id/R.40b2d8fee98ed063f3cfdc5a73a55a54?rik=5n%2fU%2f6Ni1U6tAQ&amp;riu=http%3a%2f%2fimg4.wikia.nocookie.net%2f__cb20140608024526%2fpoohadventures%2fimages%2f7%2f7b%2fFrancine_Frensky.jpg&amp;ehk=5fU9ItwQClQ7h63peOWR3pC%2bHq23hB9JssWu7e4EcUA%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0</t>
+  </si>
+  <si>
+    <t>shirt, sweater, long-sleeve</t>
+  </si>
+  <si>
+    <t>shirt, collared, button-down, long-sleeve, short-sleeve, sweater</t>
+  </si>
+  <si>
+    <t>yellow, white</t>
+  </si>
+  <si>
+    <t>yellow hair clips</t>
   </si>
 </sst>
 </file>
@@ -564,271 +609,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD77BA2C-ED9F-412B-B177-4CBE1A214489}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.7265625" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.90625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
     <col min="4" max="14" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" t="s">
-        <v>2</v>
-      </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
       <c r="F6" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" t="s">
-        <v>21</v>
-      </c>
       <c r="M7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
